--- a/_data/answers/2023.xlsx
+++ b/_data/answers/2023.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymats\Documents\Desktop\Circles\マイサー合同\マイサー合同HP\_data\answers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A84C4A-47B8-4A2A-BDE8-F3CD063C922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-19310" yWindow="4170" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="フォームの回答 1" sheetId="1" r:id="rId4"/>
+    <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -235,9 +244,6 @@
   <si>
     <t>参加費：無料（稀に数千円程度徴収することがあります）
 活動内容について詳しくはこちらをご覧ください：http://sairibus.com/projects/events/saori/saori2021/</t>
-  </si>
-  <si>
-    <t>阪大トイレ研究会</t>
   </si>
   <si>
     <t>9人</t>
@@ -602,33 +608,59 @@
   <si>
     <t>@handai_bridge</t>
   </si>
+  <si>
+    <t>大阪大学トイレ研究会</t>
+    <rPh sb="0" eb="4">
+      <t>オオサカダイガク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -636,64 +668,60 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FFFF0000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -883,26 +911,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="16" width="18.88"/>
+    <col min="1" max="16" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -934,716 +965,717 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44986.73726018518</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>44986.737260185182</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44986.73881398149</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>44986.738813981487</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="1">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44991.880303275466</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="1">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44992.67658155093</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>44992.676581550928</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44996.929025150464</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="1">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44997.85496387731</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>44997.854963877311</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44997.930995567134</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44997.97789023149</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>44997.977890231487</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44998.513280011575</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44998.610378078709</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>44998.974132650459</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45032.762533749999</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45034.634657604169</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>45039.765041087958</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="1">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>45040.608542870366</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2">
-        <v>44998.61037807871</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6">
-        <v>44998.97413265046</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>45032.76253375</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2">
-        <v>45034.63465760417</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>45039.76504108796</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C15" s="3">
-        <v>39.0</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>45040.60854287037</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45040.642850868055</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="3">
-        <v>32.0</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45040.80943094907</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>45042.874321087962</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2">
-        <v>45042.87432108796</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G19" s="3" t="s">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>45044.591852754631</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2">
-        <v>45044.59185275463</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="H20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="I20" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="J20" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>45053.344071944448</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2">
-        <v>45053.34407194445</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="H21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45053.544688078706</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="H22" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="I22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>45056.004646469912</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2">
-        <v>45056.00464646991</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="H23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="I23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="3" t="s">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>45060.043727604163</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2">
-        <v>45060.04372760416</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>177</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I11"/>
-    <hyperlink r:id="rId2" ref="I13"/>
-    <hyperlink r:id="rId3" ref="I14"/>
-    <hyperlink r:id="rId4" ref="I20"/>
-    <hyperlink r:id="rId5" ref="I22"/>
-    <hyperlink r:id="rId6" ref="I23"/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
-  <drawing r:id="rId7"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_data/answers/2023.xlsx
+++ b/_data/answers/2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymats\Documents\Desktop\Circles\マイサー合同\マイサー合同HP\_data\answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A84C4A-47B8-4A2A-BDE8-F3CD063C922C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B72E1B0-E304-4458-BFBB-50C46F2E0FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="4170" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="171">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -52,27 +52,6 @@
     <t>その他、Webサイトに掲載したい特記事項があればお願いします。</t>
   </si>
   <si>
-    <t>西尾章治郞愛好会</t>
-  </si>
-  <si>
-    <t>2015年8月1日</t>
-  </si>
-  <si>
-    <t>月1</t>
-  </si>
-  <si>
-    <t>オンライン</t>
-  </si>
-  <si>
-    <t>とにかく西尾章治郞を愛でるだけです。</t>
-  </si>
-  <si>
-    <t>これは自動化プログラム作成用のテストデータです</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
     <t>大阪大学非破壊検査研究会</t>
   </si>
   <si>
@@ -179,9 +158,6 @@
   </si>
   <si>
     <t>@OU_ojousamaclub(Twitter)、ouojousamaclub@gmail.com(メール)</t>
-  </si>
-  <si>
-    <t>和漢薬研究会</t>
   </si>
   <si>
     <t>約25人</t>
@@ -612,6 +588,13 @@
     <t>大阪大学トイレ研究会</t>
     <rPh sb="0" eb="4">
       <t>オオサカダイガク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>阪大和漢薬研究会</t>
+    <rPh sb="0" eb="2">
+      <t>ハンダイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -634,6 +617,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,12 +625,14 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -921,11 +907,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -967,13 +953,13 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44986.737260185182</v>
+        <v>44986.738813981487</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -993,112 +979,112 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44986.738813981487</v>
+        <v>44991.880303275466</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44991.880303275466</v>
+        <v>44992.676581550928</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="1">
-        <v>16</v>
+      <c r="C4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44992.676581550928</v>
+        <v>44996.929025150464</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44996.929025150464</v>
+        <v>44997.854963877311</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1">
         <v>40</v>
       </c>
-      <c r="C6" s="1">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>42</v>
@@ -1115,15 +1101,15 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44997.854963877311</v>
-      </c>
-      <c r="B7" s="1" t="s">
+        <v>44997.930995567134</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1141,16 +1127,19 @@
       <c r="I7" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44997.930995567134</v>
+        <v>44997.977890231487</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>55</v>
@@ -1176,13 +1165,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>44997.977890231487</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>44998.513280011575</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>63</v>
@@ -1191,39 +1180,39 @@
         <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44998.513280011575</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>44998.610378078709</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>73</v>
@@ -1231,7 +1220,7 @@
       <c r="H10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="4" t="s">
         <v>75</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1239,81 +1228,78 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>44998.610378078709</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="5">
+        <v>44998.974132650459</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="6">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45032.762533749999</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>44998.974132650459</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="6">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
+      <c r="J12" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>45032.762533749999</v>
+        <v>45034.634657604169</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1340,11 +1326,14 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>45034.634657604169</v>
+        <v>45039.765041087958</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="C14" s="1">
+        <v>39</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>102</v>
       </c>
@@ -1360,7 +1349,7 @@
       <c r="H14" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="1" t="s">
         <v>107</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1369,13 +1358,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>45039.765041087958</v>
+        <v>45040.608542870366</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>110</v>
@@ -1384,82 +1373,82 @@
         <v>111</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>45040.608542870366</v>
+        <v>45040.642850868055</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="1">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>45040.642850868055</v>
+        <v>45040.80943094907</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="1">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>45040.80943094907</v>
+        <v>45042.874321087962</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>129</v>
@@ -1468,61 +1457,61 @@
         <v>130</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>45042.874321087962</v>
+        <v>45044.591852754631</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="4" t="s">
         <v>142</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>45044.591852754631</v>
+        <v>45053.344071944448</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C20" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -1537,7 +1526,7 @@
       <c r="H20" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="1" t="s">
         <v>150</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1546,83 +1535,83 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>45053.344071944448</v>
+        <v>45053.544688078706</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
-      </c>
-      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>153</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>45053.544688078706</v>
+        <v>45056.004646469912</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>45056.004646469912</v>
+        <v>45060.043727604163</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>161</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>166</v>
@@ -1630,51 +1619,19 @@
       <c r="H23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>45060.043727604163</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I12" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_data/answers/2023.xlsx
+++ b/_data/answers/2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymats\Documents\Desktop\Circles\マイサー合同\マイサー合同HP\_data\answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B72E1B0-E304-4458-BFBB-50C46F2E0FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A63D5-F613-47E0-A322-FD6E54A0CA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,9 +560,6 @@
     <t>部費はないです。ゆるくやっていきます。あんまりやる事は決まってないので、みなさんで意見を出し合いながらやっていけたらなーって思ってます。</t>
   </si>
   <si>
-    <t>大阪大学コントラクトブリッジ部</t>
-  </si>
-  <si>
     <t>６人</t>
   </si>
   <si>
@@ -596,6 +593,10 @@
     <rPh sb="0" eb="2">
       <t>ハンダイ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コントラクトブリッジ部</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -911,12 +912,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" customWidth="1"/>
+    <col min="3" max="16" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -1104,7 +1107,7 @@
         <v>44997.930995567134</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>46</v>
@@ -1168,7 +1171,7 @@
         <v>44998.513280011575</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>62</v>
@@ -1598,29 +1601,29 @@
       <c r="A23" s="2">
         <v>45060.043727604163</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
